--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
@@ -2031,11 +2031,11 @@
   <dimension ref="A1:AG490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG7"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2482,7 +2482,7 @@
         <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="9"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
@@ -231,11 +231,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -277,14 +277,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,92 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,21 +408,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,7 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +581,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +641,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,73 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,61 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +774,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -792,24 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -825,43 +863,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,152 +876,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,46 +1097,49 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2031,11 +2040,11 @@
   <dimension ref="A1:AG490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="L6 M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2111,10 +2120,10 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2150,12 +2159,12 @@
       <c r="AA2" s="30"/>
       <c r="AB2" s="30"/>
       <c r="AC2" s="30"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="38"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="39"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="4"/>
@@ -2191,10 +2200,10 @@
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
       <c r="AC3" s="30"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="38"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="39"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="4"/>
@@ -2266,26 +2275,26 @@
         <v>32</v>
       </c>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="34" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="38"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="39"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="4"/>
@@ -2321,10 +2330,10 @@
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="38"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="39"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="7">
@@ -2406,7 +2415,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="37">
+      <c r="AF6" s="38">
         <v>26.31</v>
       </c>
       <c r="AG6" s="3">
@@ -2482,7 +2491,7 @@
         <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="33" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="9"/>
@@ -2495,7 +2504,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="37">
+      <c r="AF7" s="38">
         <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>26.31</v>
       </c>
@@ -2538,7 +2547,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="37"/>
+      <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="7">
@@ -2574,7 +2583,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="37"/>
+      <c r="AF9" s="38"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="7">
@@ -2610,7 +2619,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="37"/>
+      <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="7">
@@ -2646,7 +2655,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="37"/>
+      <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="7">
@@ -2682,7 +2691,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="37"/>
+      <c r="AF12" s="38"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="7">
@@ -2718,7 +2727,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="37"/>
+      <c r="AF13" s="38"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="7">
@@ -2754,7 +2763,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="37"/>
+      <c r="AF14" s="38"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="7">
@@ -2790,7 +2799,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="37"/>
+      <c r="AF15" s="38"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="7">
@@ -2826,7 +2835,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="37"/>
+      <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="7">
@@ -2862,7 +2871,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="37"/>
+      <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="7">
@@ -2898,7 +2907,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="37"/>
+      <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="7">
@@ -2934,7 +2943,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="37"/>
+      <c r="AF19" s="38"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="7">
@@ -2970,7 +2979,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="37"/>
+      <c r="AF20" s="38"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="7">
@@ -3006,7 +3015,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="37"/>
+      <c r="AF21" s="38"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="7">
@@ -3042,7 +3051,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="37"/>
+      <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7">
@@ -3078,7 +3087,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="37"/>
+      <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="7">
@@ -3114,7 +3123,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="37"/>
+      <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="7">
@@ -3150,7 +3159,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="37"/>
+      <c r="AF25" s="38"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="7">
@@ -3186,7 +3195,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="37"/>
+      <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="7">
@@ -3222,7 +3231,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="37"/>
+      <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="7">
@@ -3258,7 +3267,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="37"/>
+      <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="7">
@@ -3294,7 +3303,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="37"/>
+      <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="7">
@@ -3330,7 +3339,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="37"/>
+      <c r="AF30" s="38"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="7">
@@ -3366,7 +3375,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="37"/>
+      <c r="AF31" s="38"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="7">
@@ -3402,7 +3411,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="37"/>
+      <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="7">
@@ -3438,7 +3447,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="37"/>
+      <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="7">
@@ -3474,7 +3483,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="37"/>
+      <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="7">
@@ -3510,7 +3519,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="37"/>
+      <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="7">
@@ -3546,7 +3555,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="37"/>
+      <c r="AF36" s="38"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="7">
@@ -3582,7 +3591,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="37"/>
+      <c r="AF37" s="38"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="7">
@@ -3618,7 +3627,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="37"/>
+      <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="7">
@@ -3654,7 +3663,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="37"/>
+      <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="7">
@@ -3690,7 +3699,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="37"/>
+      <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="7">
@@ -3726,7 +3735,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="37"/>
+      <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="7">
@@ -3762,7 +3771,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="37"/>
+      <c r="AF42" s="38"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="7">
@@ -3798,7 +3807,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="37"/>
+      <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="7">
@@ -3834,7 +3843,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="37"/>
+      <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="7">
@@ -3870,7 +3879,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="37"/>
+      <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="7">
@@ -3906,7 +3915,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="37"/>
+      <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="7">
@@ -3942,7 +3951,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="37"/>
+      <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="7">
@@ -3978,7 +3987,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="37"/>
+      <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="7">
@@ -4014,7 +4023,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="37"/>
+      <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="7">
@@ -4050,7 +4059,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="37"/>
+      <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="7">
@@ -4086,7 +4095,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="37"/>
+      <c r="AF51" s="38"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="7">
@@ -4122,7 +4131,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="37"/>
+      <c r="AF52" s="38"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="7">
@@ -4158,7 +4167,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="37"/>
+      <c r="AF53" s="38"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="7">
@@ -4194,7 +4203,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="37"/>
+      <c r="AF54" s="38"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="7">
@@ -4230,7 +4239,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="37"/>
+      <c r="AF55" s="38"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="7">
@@ -4266,7 +4275,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="37"/>
+      <c r="AF56" s="38"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="7">
@@ -4302,7 +4311,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="37"/>
+      <c r="AF57" s="38"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="7">
@@ -4338,7 +4347,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="37"/>
+      <c r="AF58" s="38"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="7">
@@ -4374,7 +4383,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="37"/>
+      <c r="AF59" s="38"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="7">
@@ -4410,7 +4419,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="37"/>
+      <c r="AF60" s="38"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="7">
@@ -4446,7 +4455,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="37"/>
+      <c r="AF61" s="38"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="7">
@@ -4482,7 +4491,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
-      <c r="AF62" s="37"/>
+      <c r="AF62" s="38"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="7">
@@ -4518,7 +4527,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
-      <c r="AF63" s="37"/>
+      <c r="AF63" s="38"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="7">
@@ -4554,7 +4563,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
-      <c r="AF64" s="37"/>
+      <c r="AF64" s="38"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="7">
@@ -4590,7 +4599,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
-      <c r="AF65" s="37"/>
+      <c r="AF65" s="38"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="7">
@@ -4626,7 +4635,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
-      <c r="AF66" s="37"/>
+      <c r="AF66" s="38"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="7">
@@ -4662,7 +4671,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-      <c r="AF67" s="37"/>
+      <c r="AF67" s="38"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="7">
@@ -4698,7 +4707,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
-      <c r="AF68" s="37"/>
+      <c r="AF68" s="38"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="7">
@@ -4734,7 +4743,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
-      <c r="AF69" s="37"/>
+      <c r="AF69" s="38"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="7">
@@ -4770,7 +4779,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
-      <c r="AF70" s="37"/>
+      <c r="AF70" s="38"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="7">
@@ -4806,7 +4815,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
-      <c r="AF71" s="37"/>
+      <c r="AF71" s="38"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="7">
@@ -4842,7 +4851,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
-      <c r="AF72" s="37"/>
+      <c r="AF72" s="38"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="7">
@@ -4878,7 +4887,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
-      <c r="AF73" s="37"/>
+      <c r="AF73" s="38"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="7">
@@ -4914,7 +4923,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
-      <c r="AF74" s="37"/>
+      <c r="AF74" s="38"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="7">
@@ -4950,7 +4959,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
-      <c r="AF75" s="37"/>
+      <c r="AF75" s="38"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="7">
@@ -4986,7 +4995,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
-      <c r="AF76" s="37"/>
+      <c r="AF76" s="38"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="7">
@@ -5022,7 +5031,7 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
-      <c r="AF77" s="37"/>
+      <c r="AF77" s="38"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="7">
@@ -5058,7 +5067,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
-      <c r="AF78" s="37"/>
+      <c r="AF78" s="38"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="7">
@@ -5094,7 +5103,7 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
-      <c r="AF79" s="37"/>
+      <c r="AF79" s="38"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="7">
@@ -5130,7 +5139,7 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
-      <c r="AF80" s="37"/>
+      <c r="AF80" s="38"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="7">
@@ -5166,7 +5175,7 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
-      <c r="AF81" s="37"/>
+      <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="7">
@@ -5202,7 +5211,7 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-      <c r="AF82" s="37"/>
+      <c r="AF82" s="38"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="7">
@@ -5238,7 +5247,7 @@
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
-      <c r="AF83" s="37"/>
+      <c r="AF83" s="38"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="7">
@@ -5274,7 +5283,7 @@
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
-      <c r="AF84" s="37"/>
+      <c r="AF84" s="38"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="7">
@@ -5310,7 +5319,7 @@
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
-      <c r="AF85" s="37"/>
+      <c r="AF85" s="38"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="7">
@@ -5346,7 +5355,7 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
-      <c r="AF86" s="37"/>
+      <c r="AF86" s="38"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="7">
@@ -5382,7 +5391,7 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
-      <c r="AF87" s="37"/>
+      <c r="AF87" s="38"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="7">
@@ -5418,7 +5427,7 @@
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
-      <c r="AF88" s="37"/>
+      <c r="AF88" s="38"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="7">
@@ -5454,7 +5463,7 @@
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
-      <c r="AF89" s="37"/>
+      <c r="AF89" s="38"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="7">
@@ -5490,7 +5499,7 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-      <c r="AF90" s="37"/>
+      <c r="AF90" s="38"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="7">
@@ -5526,7 +5535,7 @@
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
-      <c r="AF91" s="37"/>
+      <c r="AF91" s="38"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="7">
@@ -5562,7 +5571,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
-      <c r="AF92" s="37"/>
+      <c r="AF92" s="38"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="7">
@@ -5598,7 +5607,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
-      <c r="AF93" s="37"/>
+      <c r="AF93" s="38"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="7">
@@ -5634,7 +5643,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
-      <c r="AF94" s="37"/>
+      <c r="AF94" s="38"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="7">
@@ -5670,7 +5679,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-      <c r="AF95" s="37"/>
+      <c r="AF95" s="38"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="7">
@@ -5706,7 +5715,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
-      <c r="AF96" s="37"/>
+      <c r="AF96" s="38"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="7">
@@ -5742,7 +5751,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
-      <c r="AF97" s="37"/>
+      <c r="AF97" s="38"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="7">
@@ -5778,7 +5787,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
-      <c r="AF98" s="37"/>
+      <c r="AF98" s="38"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="7">
@@ -5814,7 +5823,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
-      <c r="AF99" s="37"/>
+      <c r="AF99" s="38"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="7">
@@ -5850,7 +5859,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
-      <c r="AF100" s="37"/>
+      <c r="AF100" s="38"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="7">
@@ -5886,7 +5895,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
-      <c r="AF101" s="37"/>
+      <c r="AF101" s="38"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="7">
@@ -5922,7 +5931,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
-      <c r="AF102" s="37"/>
+      <c r="AF102" s="38"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="7">
@@ -5958,7 +5967,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
-      <c r="AF103" s="37"/>
+      <c r="AF103" s="38"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="7">
@@ -5994,7 +6003,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
-      <c r="AF104" s="37"/>
+      <c r="AF104" s="38"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="7">
@@ -6030,7 +6039,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
-      <c r="AF105" s="37"/>
+      <c r="AF105" s="38"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="7">
@@ -6066,7 +6075,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
-      <c r="AF106" s="37"/>
+      <c r="AF106" s="38"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="7">
@@ -6102,7 +6111,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
-      <c r="AF107" s="37"/>
+      <c r="AF107" s="38"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="7">
@@ -6138,7 +6147,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
-      <c r="AF108" s="37"/>
+      <c r="AF108" s="38"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="7">
@@ -6174,7 +6183,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
-      <c r="AF109" s="37"/>
+      <c r="AF109" s="38"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="7">
@@ -6210,7 +6219,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
-      <c r="AF110" s="37"/>
+      <c r="AF110" s="38"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="7">
@@ -6246,7 +6255,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
-      <c r="AF111" s="37"/>
+      <c r="AF111" s="38"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="7">
@@ -6282,7 +6291,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
-      <c r="AF112" s="37"/>
+      <c r="AF112" s="38"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="7">
@@ -6318,7 +6327,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
-      <c r="AF113" s="37"/>
+      <c r="AF113" s="38"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="7">
@@ -6354,7 +6363,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
-      <c r="AF114" s="37"/>
+      <c r="AF114" s="38"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="7">
@@ -6390,7 +6399,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
-      <c r="AF115" s="37"/>
+      <c r="AF115" s="38"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="7">
@@ -6426,7 +6435,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
-      <c r="AF116" s="37"/>
+      <c r="AF116" s="38"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="7">
@@ -6462,7 +6471,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
-      <c r="AF117" s="37"/>
+      <c r="AF117" s="38"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="7">
@@ -6498,7 +6507,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
-      <c r="AF118" s="37"/>
+      <c r="AF118" s="38"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="7">
@@ -6534,7 +6543,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
-      <c r="AF119" s="37"/>
+      <c r="AF119" s="38"/>
     </row>
     <row r="120" spans="1:23">
       <c r="A120" s="1"/>
@@ -6545,9 +6554,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="39"/>
+      <c r="J120" s="40"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="39"/>
+      <c r="L120" s="40"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -6567,9 +6576,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="39"/>
+      <c r="J121" s="40"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="39"/>
+      <c r="L121" s="40"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -6589,9 +6598,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="39"/>
+      <c r="J122" s="40"/>
       <c r="K122" s="1"/>
-      <c r="L122" s="39"/>
+      <c r="L122" s="40"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -6611,9 +6620,9 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="39"/>
+      <c r="J123" s="40"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="39"/>
+      <c r="L123" s="40"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -6633,9 +6642,9 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="39"/>
+      <c r="J124" s="40"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="39"/>
+      <c r="L124" s="40"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -6655,9 +6664,9 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="39"/>
+      <c r="J125" s="40"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="39"/>
+      <c r="L125" s="40"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -6677,9 +6686,9 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="39"/>
+      <c r="J126" s="40"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="39"/>
+      <c r="L126" s="40"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -6699,9 +6708,9 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="39"/>
+      <c r="J127" s="40"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="39"/>
+      <c r="L127" s="40"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -6721,9 +6730,9 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="39"/>
+      <c r="J128" s="40"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="39"/>
+      <c r="L128" s="40"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -6743,9 +6752,9 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="39"/>
+      <c r="J129" s="40"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="39"/>
+      <c r="L129" s="40"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -6765,9 +6774,9 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="39"/>
+      <c r="J130" s="40"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="39"/>
+      <c r="L130" s="40"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -6787,9 +6796,9 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="39"/>
+      <c r="J131" s="40"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="39"/>
+      <c r="L131" s="40"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -6809,9 +6818,9 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="39"/>
+      <c r="J132" s="40"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="39"/>
+      <c r="L132" s="40"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -6831,9 +6840,9 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="39"/>
+      <c r="J133" s="40"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="39"/>
+      <c r="L133" s="40"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -6853,9 +6862,9 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="39"/>
+      <c r="J134" s="40"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="39"/>
+      <c r="L134" s="40"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -6875,9 +6884,9 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="39"/>
+      <c r="J135" s="40"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="39"/>
+      <c r="L135" s="40"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -6897,9 +6906,9 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="39"/>
+      <c r="J136" s="40"/>
       <c r="K136" s="1"/>
-      <c r="L136" s="39"/>
+      <c r="L136" s="40"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -6919,9 +6928,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="39"/>
+      <c r="J137" s="40"/>
       <c r="K137" s="1"/>
-      <c r="L137" s="39"/>
+      <c r="L137" s="40"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -6941,9 +6950,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="39"/>
+      <c r="J138" s="40"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="39"/>
+      <c r="L138" s="40"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -6963,9 +6972,9 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="39"/>
+      <c r="J139" s="40"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="39"/>
+      <c r="L139" s="40"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -6985,9 +6994,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="39"/>
+      <c r="J140" s="40"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="39"/>
+      <c r="L140" s="40"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7007,9 +7016,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="39"/>
+      <c r="J141" s="40"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="39"/>
+      <c r="L141" s="40"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7029,9 +7038,9 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="39"/>
+      <c r="J142" s="40"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="39"/>
+      <c r="L142" s="40"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7051,9 +7060,9 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="39"/>
+      <c r="J143" s="40"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="39"/>
+      <c r="L143" s="40"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7073,9 +7082,9 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="39"/>
+      <c r="J144" s="40"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="39"/>
+      <c r="L144" s="40"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -7095,9 +7104,9 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="39"/>
+      <c r="J145" s="40"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="39"/>
+      <c r="L145" s="40"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7117,9 +7126,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="39"/>
+      <c r="J146" s="40"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="39"/>
+      <c r="L146" s="40"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -7139,9 +7148,9 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="39"/>
+      <c r="J147" s="40"/>
       <c r="K147" s="1"/>
-      <c r="L147" s="39"/>
+      <c r="L147" s="40"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -7161,9 +7170,9 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="39"/>
+      <c r="J148" s="40"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="39"/>
+      <c r="L148" s="40"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -7183,9 +7192,9 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="39"/>
+      <c r="J149" s="40"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="39"/>
+      <c r="L149" s="40"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -7205,9 +7214,9 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="39"/>
+      <c r="J150" s="40"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="39"/>
+      <c r="L150" s="40"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -7227,9 +7236,9 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="39"/>
+      <c r="J151" s="40"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="39"/>
+      <c r="L151" s="40"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -7249,9 +7258,9 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="39"/>
+      <c r="J152" s="40"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="39"/>
+      <c r="L152" s="40"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -7271,9 +7280,9 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="39"/>
+      <c r="J153" s="40"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="39"/>
+      <c r="L153" s="40"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
@@ -7293,9 +7302,9 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="39"/>
+      <c r="J154" s="40"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="39"/>
+      <c r="L154" s="40"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -7315,9 +7324,9 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="39"/>
+      <c r="J155" s="40"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="39"/>
+      <c r="L155" s="40"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -7337,9 +7346,9 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="39"/>
+      <c r="J156" s="40"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="39"/>
+      <c r="L156" s="40"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -7359,9 +7368,9 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="39"/>
+      <c r="J157" s="40"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="39"/>
+      <c r="L157" s="40"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -7381,9 +7390,9 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="39"/>
+      <c r="J158" s="40"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="39"/>
+      <c r="L158" s="40"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -7403,9 +7412,9 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="39"/>
+      <c r="J159" s="40"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="39"/>
+      <c r="L159" s="40"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
@@ -7425,9 +7434,9 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="39"/>
+      <c r="J160" s="40"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="39"/>
+      <c r="L160" s="40"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
@@ -7447,9 +7456,9 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="39"/>
+      <c r="J161" s="40"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="39"/>
+      <c r="L161" s="40"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
@@ -7469,9 +7478,9 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="39"/>
+      <c r="J162" s="40"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="39"/>
+      <c r="L162" s="40"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
@@ -7491,9 +7500,9 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="39"/>
+      <c r="J163" s="40"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="39"/>
+      <c r="L163" s="40"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
@@ -7513,9 +7522,9 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="39"/>
+      <c r="J164" s="40"/>
       <c r="K164" s="1"/>
-      <c r="L164" s="39"/>
+      <c r="L164" s="40"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
@@ -7535,9 +7544,9 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="39"/>
+      <c r="J165" s="40"/>
       <c r="K165" s="1"/>
-      <c r="L165" s="39"/>
+      <c r="L165" s="40"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
@@ -7557,9 +7566,9 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="39"/>
+      <c r="J166" s="40"/>
       <c r="K166" s="1"/>
-      <c r="L166" s="39"/>
+      <c r="L166" s="40"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
@@ -7579,9 +7588,9 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="39"/>
+      <c r="J167" s="40"/>
       <c r="K167" s="1"/>
-      <c r="L167" s="39"/>
+      <c r="L167" s="40"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
@@ -7601,9 +7610,9 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="39"/>
+      <c r="J168" s="40"/>
       <c r="K168" s="1"/>
-      <c r="L168" s="39"/>
+      <c r="L168" s="40"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
@@ -7623,9 +7632,9 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="39"/>
+      <c r="J169" s="40"/>
       <c r="K169" s="1"/>
-      <c r="L169" s="39"/>
+      <c r="L169" s="40"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
@@ -7645,9 +7654,9 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="39"/>
+      <c r="J170" s="40"/>
       <c r="K170" s="1"/>
-      <c r="L170" s="39"/>
+      <c r="L170" s="40"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
@@ -7667,9 +7676,9 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="39"/>
+      <c r="J171" s="40"/>
       <c r="K171" s="1"/>
-      <c r="L171" s="39"/>
+      <c r="L171" s="40"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
@@ -7689,9 +7698,9 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="39"/>
+      <c r="J172" s="40"/>
       <c r="K172" s="1"/>
-      <c r="L172" s="39"/>
+      <c r="L172" s="40"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
@@ -7711,9 +7720,9 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="39"/>
+      <c r="J173" s="40"/>
       <c r="K173" s="1"/>
-      <c r="L173" s="39"/>
+      <c r="L173" s="40"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
@@ -7733,9 +7742,9 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="39"/>
+      <c r="J174" s="40"/>
       <c r="K174" s="1"/>
-      <c r="L174" s="39"/>
+      <c r="L174" s="40"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -7755,9 +7764,9 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="39"/>
+      <c r="J175" s="40"/>
       <c r="K175" s="1"/>
-      <c r="L175" s="39"/>
+      <c r="L175" s="40"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -7777,9 +7786,9 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="39"/>
+      <c r="J176" s="40"/>
       <c r="K176" s="1"/>
-      <c r="L176" s="39"/>
+      <c r="L176" s="40"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
@@ -7799,9 +7808,9 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="39"/>
+      <c r="J177" s="40"/>
       <c r="K177" s="1"/>
-      <c r="L177" s="39"/>
+      <c r="L177" s="40"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
@@ -7821,9 +7830,9 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="39"/>
+      <c r="J178" s="40"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="39"/>
+      <c r="L178" s="40"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -7843,9 +7852,9 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="39"/>
+      <c r="J179" s="40"/>
       <c r="K179" s="1"/>
-      <c r="L179" s="39"/>
+      <c r="L179" s="40"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -7865,9 +7874,9 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="39"/>
+      <c r="J180" s="40"/>
       <c r="K180" s="1"/>
-      <c r="L180" s="39"/>
+      <c r="L180" s="40"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -7887,9 +7896,9 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="39"/>
+      <c r="J181" s="40"/>
       <c r="K181" s="1"/>
-      <c r="L181" s="39"/>
+      <c r="L181" s="40"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
@@ -7909,9 +7918,9 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="39"/>
+      <c r="J182" s="40"/>
       <c r="K182" s="1"/>
-      <c r="L182" s="39"/>
+      <c r="L182" s="40"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
@@ -7931,9 +7940,9 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="39"/>
+      <c r="J183" s="40"/>
       <c r="K183" s="1"/>
-      <c r="L183" s="39"/>
+      <c r="L183" s="40"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
@@ -7953,9 +7962,9 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="39"/>
+      <c r="J184" s="40"/>
       <c r="K184" s="1"/>
-      <c r="L184" s="39"/>
+      <c r="L184" s="40"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
@@ -7975,9 +7984,9 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="39"/>
+      <c r="J185" s="40"/>
       <c r="K185" s="1"/>
-      <c r="L185" s="39"/>
+      <c r="L185" s="40"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
@@ -7997,9 +8006,9 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="39"/>
+      <c r="J186" s="40"/>
       <c r="K186" s="1"/>
-      <c r="L186" s="39"/>
+      <c r="L186" s="40"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
@@ -8019,9 +8028,9 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="39"/>
+      <c r="J187" s="40"/>
       <c r="K187" s="1"/>
-      <c r="L187" s="39"/>
+      <c r="L187" s="40"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
@@ -8041,9 +8050,9 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="39"/>
+      <c r="J188" s="40"/>
       <c r="K188" s="1"/>
-      <c r="L188" s="39"/>
+      <c r="L188" s="40"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
@@ -8063,9 +8072,9 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="39"/>
+      <c r="J189" s="40"/>
       <c r="K189" s="1"/>
-      <c r="L189" s="39"/>
+      <c r="L189" s="40"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
@@ -8085,9 +8094,9 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="39"/>
+      <c r="J190" s="40"/>
       <c r="K190" s="1"/>
-      <c r="L190" s="39"/>
+      <c r="L190" s="40"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
@@ -8107,9 +8116,9 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="39"/>
+      <c r="J191" s="40"/>
       <c r="K191" s="1"/>
-      <c r="L191" s="39"/>
+      <c r="L191" s="40"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -8129,9 +8138,9 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="39"/>
+      <c r="J192" s="40"/>
       <c r="K192" s="1"/>
-      <c r="L192" s="39"/>
+      <c r="L192" s="40"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
@@ -8151,9 +8160,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="39"/>
+      <c r="J193" s="40"/>
       <c r="K193" s="1"/>
-      <c r="L193" s="39"/>
+      <c r="L193" s="40"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
@@ -8173,9 +8182,9 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="39"/>
+      <c r="J194" s="40"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="39"/>
+      <c r="L194" s="40"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
@@ -8195,9 +8204,9 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="39"/>
+      <c r="J195" s="40"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="39"/>
+      <c r="L195" s="40"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
@@ -8217,9 +8226,9 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="39"/>
+      <c r="J196" s="40"/>
       <c r="K196" s="1"/>
-      <c r="L196" s="39"/>
+      <c r="L196" s="40"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
@@ -8239,9 +8248,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="39"/>
+      <c r="J197" s="40"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="39"/>
+      <c r="L197" s="40"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -8261,9 +8270,9 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="39"/>
+      <c r="J198" s="40"/>
       <c r="K198" s="1"/>
-      <c r="L198" s="39"/>
+      <c r="L198" s="40"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
@@ -8283,9 +8292,9 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="39"/>
+      <c r="J199" s="40"/>
       <c r="K199" s="1"/>
-      <c r="L199" s="39"/>
+      <c r="L199" s="40"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
@@ -8305,9 +8314,9 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="39"/>
+      <c r="J200" s="40"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="39"/>
+      <c r="L200" s="40"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -8327,9 +8336,9 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="39"/>
+      <c r="J201" s="40"/>
       <c r="K201" s="1"/>
-      <c r="L201" s="39"/>
+      <c r="L201" s="40"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -8349,9 +8358,9 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="39"/>
+      <c r="J202" s="40"/>
       <c r="K202" s="1"/>
-      <c r="L202" s="39"/>
+      <c r="L202" s="40"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
@@ -8371,9 +8380,9 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="39"/>
+      <c r="J203" s="40"/>
       <c r="K203" s="1"/>
-      <c r="L203" s="39"/>
+      <c r="L203" s="40"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -8393,9 +8402,9 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="39"/>
+      <c r="J204" s="40"/>
       <c r="K204" s="1"/>
-      <c r="L204" s="39"/>
+      <c r="L204" s="40"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
@@ -8415,9 +8424,9 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="39"/>
+      <c r="J205" s="40"/>
       <c r="K205" s="1"/>
-      <c r="L205" s="39"/>
+      <c r="L205" s="40"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
@@ -8437,9 +8446,9 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="39"/>
+      <c r="J206" s="40"/>
       <c r="K206" s="1"/>
-      <c r="L206" s="39"/>
+      <c r="L206" s="40"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
@@ -8459,9 +8468,9 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="39"/>
+      <c r="J207" s="40"/>
       <c r="K207" s="1"/>
-      <c r="L207" s="39"/>
+      <c r="L207" s="40"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
@@ -8481,9 +8490,9 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="39"/>
+      <c r="J208" s="40"/>
       <c r="K208" s="1"/>
-      <c r="L208" s="39"/>
+      <c r="L208" s="40"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -8503,9 +8512,9 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="39"/>
+      <c r="J209" s="40"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="39"/>
+      <c r="L209" s="40"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -8525,9 +8534,9 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="39"/>
+      <c r="J210" s="40"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="39"/>
+      <c r="L210" s="40"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -8547,9 +8556,9 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="39"/>
+      <c r="J211" s="40"/>
       <c r="K211" s="1"/>
-      <c r="L211" s="39"/>
+      <c r="L211" s="40"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -8569,9 +8578,9 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="39"/>
+      <c r="J212" s="40"/>
       <c r="K212" s="1"/>
-      <c r="L212" s="39"/>
+      <c r="L212" s="40"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -8591,9 +8600,9 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="39"/>
+      <c r="J213" s="40"/>
       <c r="K213" s="1"/>
-      <c r="L213" s="39"/>
+      <c r="L213" s="40"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -8613,9 +8622,9 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="39"/>
+      <c r="J214" s="40"/>
       <c r="K214" s="1"/>
-      <c r="L214" s="39"/>
+      <c r="L214" s="40"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -8635,9 +8644,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="39"/>
+      <c r="J215" s="40"/>
       <c r="K215" s="1"/>
-      <c r="L215" s="39"/>
+      <c r="L215" s="40"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -8657,9 +8666,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="39"/>
+      <c r="J216" s="40"/>
       <c r="K216" s="1"/>
-      <c r="L216" s="39"/>
+      <c r="L216" s="40"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -8679,9 +8688,9 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="39"/>
+      <c r="J217" s="40"/>
       <c r="K217" s="1"/>
-      <c r="L217" s="39"/>
+      <c r="L217" s="40"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -8701,9 +8710,9 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="39"/>
+      <c r="J218" s="40"/>
       <c r="K218" s="1"/>
-      <c r="L218" s="39"/>
+      <c r="L218" s="40"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -8723,9 +8732,9 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="39"/>
+      <c r="J219" s="40"/>
       <c r="K219" s="1"/>
-      <c r="L219" s="39"/>
+      <c r="L219" s="40"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -8745,9 +8754,9 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="39"/>
+      <c r="J220" s="40"/>
       <c r="K220" s="1"/>
-      <c r="L220" s="39"/>
+      <c r="L220" s="40"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -8767,9 +8776,9 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="39"/>
+      <c r="J221" s="40"/>
       <c r="K221" s="1"/>
-      <c r="L221" s="39"/>
+      <c r="L221" s="40"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -8789,9 +8798,9 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="39"/>
+      <c r="J222" s="40"/>
       <c r="K222" s="1"/>
-      <c r="L222" s="39"/>
+      <c r="L222" s="40"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -8811,9 +8820,9 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="39"/>
+      <c r="J223" s="40"/>
       <c r="K223" s="1"/>
-      <c r="L223" s="39"/>
+      <c r="L223" s="40"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -8833,9 +8842,9 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="39"/>
+      <c r="J224" s="40"/>
       <c r="K224" s="1"/>
-      <c r="L224" s="39"/>
+      <c r="L224" s="40"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -8855,9 +8864,9 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="39"/>
+      <c r="J225" s="40"/>
       <c r="K225" s="1"/>
-      <c r="L225" s="39"/>
+      <c r="L225" s="40"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -8877,9 +8886,9 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="39"/>
+      <c r="J226" s="40"/>
       <c r="K226" s="1"/>
-      <c r="L226" s="39"/>
+      <c r="L226" s="40"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -8899,9 +8908,9 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="39"/>
+      <c r="J227" s="40"/>
       <c r="K227" s="1"/>
-      <c r="L227" s="39"/>
+      <c r="L227" s="40"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -8921,9 +8930,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="39"/>
+      <c r="J228" s="40"/>
       <c r="K228" s="1"/>
-      <c r="L228" s="39"/>
+      <c r="L228" s="40"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -8943,9 +8952,9 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="39"/>
+      <c r="J229" s="40"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="39"/>
+      <c r="L229" s="40"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -8965,9 +8974,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="39"/>
+      <c r="J230" s="40"/>
       <c r="K230" s="1"/>
-      <c r="L230" s="39"/>
+      <c r="L230" s="40"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -8987,9 +8996,9 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="39"/>
+      <c r="J231" s="40"/>
       <c r="K231" s="1"/>
-      <c r="L231" s="39"/>
+      <c r="L231" s="40"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -9009,9 +9018,9 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="39"/>
+      <c r="J232" s="40"/>
       <c r="K232" s="1"/>
-      <c r="L232" s="39"/>
+      <c r="L232" s="40"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -9031,9 +9040,9 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="39"/>
+      <c r="J233" s="40"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="39"/>
+      <c r="L233" s="40"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -9053,9 +9062,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="39"/>
+      <c r="J234" s="40"/>
       <c r="K234" s="1"/>
-      <c r="L234" s="39"/>
+      <c r="L234" s="40"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -9075,9 +9084,9 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="39"/>
+      <c r="J235" s="40"/>
       <c r="K235" s="1"/>
-      <c r="L235" s="39"/>
+      <c r="L235" s="40"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -9097,9 +9106,9 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="39"/>
+      <c r="J236" s="40"/>
       <c r="K236" s="1"/>
-      <c r="L236" s="39"/>
+      <c r="L236" s="40"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -9119,9 +9128,9 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="39"/>
+      <c r="J237" s="40"/>
       <c r="K237" s="1"/>
-      <c r="L237" s="39"/>
+      <c r="L237" s="40"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -9141,9 +9150,9 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="39"/>
+      <c r="J238" s="40"/>
       <c r="K238" s="1"/>
-      <c r="L238" s="39"/>
+      <c r="L238" s="40"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -9163,9 +9172,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="39"/>
+      <c r="J239" s="40"/>
       <c r="K239" s="1"/>
-      <c r="L239" s="39"/>
+      <c r="L239" s="40"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -9185,9 +9194,9 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="39"/>
+      <c r="J240" s="40"/>
       <c r="K240" s="1"/>
-      <c r="L240" s="39"/>
+      <c r="L240" s="40"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -9207,9 +9216,9 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="39"/>
+      <c r="J241" s="40"/>
       <c r="K241" s="1"/>
-      <c r="L241" s="39"/>
+      <c r="L241" s="40"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -9229,9 +9238,9 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="39"/>
+      <c r="J242" s="40"/>
       <c r="K242" s="1"/>
-      <c r="L242" s="39"/>
+      <c r="L242" s="40"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -9251,9 +9260,9 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="39"/>
+      <c r="J243" s="40"/>
       <c r="K243" s="1"/>
-      <c r="L243" s="39"/>
+      <c r="L243" s="40"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -9273,9 +9282,9 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="39"/>
+      <c r="J244" s="40"/>
       <c r="K244" s="1"/>
-      <c r="L244" s="39"/>
+      <c r="L244" s="40"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -9295,9 +9304,9 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="39"/>
+      <c r="J245" s="40"/>
       <c r="K245" s="1"/>
-      <c r="L245" s="39"/>
+      <c r="L245" s="40"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -9317,9 +9326,9 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="39"/>
+      <c r="J246" s="40"/>
       <c r="K246" s="1"/>
-      <c r="L246" s="39"/>
+      <c r="L246" s="40"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -9339,9 +9348,9 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="39"/>
+      <c r="J247" s="40"/>
       <c r="K247" s="1"/>
-      <c r="L247" s="39"/>
+      <c r="L247" s="40"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -9361,9 +9370,9 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="39"/>
+      <c r="J248" s="40"/>
       <c r="K248" s="1"/>
-      <c r="L248" s="39"/>
+      <c r="L248" s="40"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -9383,9 +9392,9 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="39"/>
+      <c r="J249" s="40"/>
       <c r="K249" s="1"/>
-      <c r="L249" s="39"/>
+      <c r="L249" s="40"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -9405,9 +9414,9 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="39"/>
+      <c r="J250" s="40"/>
       <c r="K250" s="1"/>
-      <c r="L250" s="39"/>
+      <c r="L250" s="40"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -9427,9 +9436,9 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="39"/>
+      <c r="J251" s="40"/>
       <c r="K251" s="1"/>
-      <c r="L251" s="39"/>
+      <c r="L251" s="40"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -9449,9 +9458,9 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="39"/>
+      <c r="J252" s="40"/>
       <c r="K252" s="1"/>
-      <c r="L252" s="39"/>
+      <c r="L252" s="40"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -9471,9 +9480,9 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="39"/>
+      <c r="J253" s="40"/>
       <c r="K253" s="1"/>
-      <c r="L253" s="39"/>
+      <c r="L253" s="40"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -9493,9 +9502,9 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="39"/>
+      <c r="J254" s="40"/>
       <c r="K254" s="1"/>
-      <c r="L254" s="39"/>
+      <c r="L254" s="40"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -9515,9 +9524,9 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="39"/>
+      <c r="J255" s="40"/>
       <c r="K255" s="1"/>
-      <c r="L255" s="39"/>
+      <c r="L255" s="40"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -9537,9 +9546,9 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="39"/>
+      <c r="J256" s="40"/>
       <c r="K256" s="1"/>
-      <c r="L256" s="39"/>
+      <c r="L256" s="40"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -9559,9 +9568,9 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="39"/>
+      <c r="J257" s="40"/>
       <c r="K257" s="1"/>
-      <c r="L257" s="39"/>
+      <c r="L257" s="40"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -9581,9 +9590,9 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="39"/>
+      <c r="J258" s="40"/>
       <c r="K258" s="1"/>
-      <c r="L258" s="39"/>
+      <c r="L258" s="40"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -9603,9 +9612,9 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="39"/>
+      <c r="J259" s="40"/>
       <c r="K259" s="1"/>
-      <c r="L259" s="39"/>
+      <c r="L259" s="40"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -9625,9 +9634,9 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="39"/>
+      <c r="J260" s="40"/>
       <c r="K260" s="1"/>
-      <c r="L260" s="39"/>
+      <c r="L260" s="40"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -9647,9 +9656,9 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="39"/>
+      <c r="J261" s="40"/>
       <c r="K261" s="1"/>
-      <c r="L261" s="39"/>
+      <c r="L261" s="40"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -9669,9 +9678,9 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="39"/>
+      <c r="J262" s="40"/>
       <c r="K262" s="1"/>
-      <c r="L262" s="39"/>
+      <c r="L262" s="40"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -9691,9 +9700,9 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="39"/>
+      <c r="J263" s="40"/>
       <c r="K263" s="1"/>
-      <c r="L263" s="39"/>
+      <c r="L263" s="40"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -9713,9 +9722,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="39"/>
+      <c r="J264" s="40"/>
       <c r="K264" s="1"/>
-      <c r="L264" s="39"/>
+      <c r="L264" s="40"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -9735,9 +9744,9 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="39"/>
+      <c r="J265" s="40"/>
       <c r="K265" s="1"/>
-      <c r="L265" s="39"/>
+      <c r="L265" s="40"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -9757,9 +9766,9 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="39"/>
+      <c r="J266" s="40"/>
       <c r="K266" s="1"/>
-      <c r="L266" s="39"/>
+      <c r="L266" s="40"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -9779,9 +9788,9 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="39"/>
+      <c r="J267" s="40"/>
       <c r="K267" s="1"/>
-      <c r="L267" s="39"/>
+      <c r="L267" s="40"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -9801,9 +9810,9 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="39"/>
+      <c r="J268" s="40"/>
       <c r="K268" s="1"/>
-      <c r="L268" s="39"/>
+      <c r="L268" s="40"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -9823,9 +9832,9 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="39"/>
+      <c r="J269" s="40"/>
       <c r="K269" s="1"/>
-      <c r="L269" s="39"/>
+      <c r="L269" s="40"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -9845,9 +9854,9 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="39"/>
+      <c r="J270" s="40"/>
       <c r="K270" s="1"/>
-      <c r="L270" s="39"/>
+      <c r="L270" s="40"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -9867,9 +9876,9 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="39"/>
+      <c r="J271" s="40"/>
       <c r="K271" s="1"/>
-      <c r="L271" s="39"/>
+      <c r="L271" s="40"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -9889,9 +9898,9 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="39"/>
+      <c r="J272" s="40"/>
       <c r="K272" s="1"/>
-      <c r="L272" s="39"/>
+      <c r="L272" s="40"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -9911,9 +9920,9 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="39"/>
+      <c r="J273" s="40"/>
       <c r="K273" s="1"/>
-      <c r="L273" s="39"/>
+      <c r="L273" s="40"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -9933,9 +9942,9 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="39"/>
+      <c r="J274" s="40"/>
       <c r="K274" s="1"/>
-      <c r="L274" s="39"/>
+      <c r="L274" s="40"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -9955,9 +9964,9 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="39"/>
+      <c r="J275" s="40"/>
       <c r="K275" s="1"/>
-      <c r="L275" s="39"/>
+      <c r="L275" s="40"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -9977,9 +9986,9 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="39"/>
+      <c r="J276" s="40"/>
       <c r="K276" s="1"/>
-      <c r="L276" s="39"/>
+      <c r="L276" s="40"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -9999,9 +10008,9 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="39"/>
+      <c r="J277" s="40"/>
       <c r="K277" s="1"/>
-      <c r="L277" s="39"/>
+      <c r="L277" s="40"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -10021,9 +10030,9 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="39"/>
+      <c r="J278" s="40"/>
       <c r="K278" s="1"/>
-      <c r="L278" s="39"/>
+      <c r="L278" s="40"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -10043,9 +10052,9 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="39"/>
+      <c r="J279" s="40"/>
       <c r="K279" s="1"/>
-      <c r="L279" s="39"/>
+      <c r="L279" s="40"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -10065,9 +10074,9 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="39"/>
+      <c r="J280" s="40"/>
       <c r="K280" s="1"/>
-      <c r="L280" s="39"/>
+      <c r="L280" s="40"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -10087,9 +10096,9 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="39"/>
+      <c r="J281" s="40"/>
       <c r="K281" s="1"/>
-      <c r="L281" s="39"/>
+      <c r="L281" s="40"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -10109,9 +10118,9 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="39"/>
+      <c r="J282" s="40"/>
       <c r="K282" s="1"/>
-      <c r="L282" s="39"/>
+      <c r="L282" s="40"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -10131,9 +10140,9 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="39"/>
+      <c r="J283" s="40"/>
       <c r="K283" s="1"/>
-      <c r="L283" s="39"/>
+      <c r="L283" s="40"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -10153,9 +10162,9 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="39"/>
+      <c r="J284" s="40"/>
       <c r="K284" s="1"/>
-      <c r="L284" s="39"/>
+      <c r="L284" s="40"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -10175,9 +10184,9 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="39"/>
+      <c r="J285" s="40"/>
       <c r="K285" s="1"/>
-      <c r="L285" s="39"/>
+      <c r="L285" s="40"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -10197,9 +10206,9 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="39"/>
+      <c r="J286" s="40"/>
       <c r="K286" s="1"/>
-      <c r="L286" s="39"/>
+      <c r="L286" s="40"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -10219,9 +10228,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="39"/>
+      <c r="J287" s="40"/>
       <c r="K287" s="1"/>
-      <c r="L287" s="39"/>
+      <c r="L287" s="40"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -10241,9 +10250,9 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="39"/>
+      <c r="J288" s="40"/>
       <c r="K288" s="1"/>
-      <c r="L288" s="39"/>
+      <c r="L288" s="40"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -10263,9 +10272,9 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="39"/>
+      <c r="J289" s="40"/>
       <c r="K289" s="1"/>
-      <c r="L289" s="39"/>
+      <c r="L289" s="40"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -10285,9 +10294,9 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="39"/>
+      <c r="J290" s="40"/>
       <c r="K290" s="1"/>
-      <c r="L290" s="39"/>
+      <c r="L290" s="40"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -10307,9 +10316,9 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="39"/>
+      <c r="J291" s="40"/>
       <c r="K291" s="1"/>
-      <c r="L291" s="39"/>
+      <c r="L291" s="40"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -10329,9 +10338,9 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="39"/>
+      <c r="J292" s="40"/>
       <c r="K292" s="1"/>
-      <c r="L292" s="39"/>
+      <c r="L292" s="40"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -10351,9 +10360,9 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="39"/>
+      <c r="J293" s="40"/>
       <c r="K293" s="1"/>
-      <c r="L293" s="39"/>
+      <c r="L293" s="40"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -10373,9 +10382,9 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="39"/>
+      <c r="J294" s="40"/>
       <c r="K294" s="1"/>
-      <c r="L294" s="39"/>
+      <c r="L294" s="40"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -10395,9 +10404,9 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="39"/>
+      <c r="J295" s="40"/>
       <c r="K295" s="1"/>
-      <c r="L295" s="39"/>
+      <c r="L295" s="40"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -10417,9 +10426,9 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="39"/>
+      <c r="J296" s="40"/>
       <c r="K296" s="1"/>
-      <c r="L296" s="39"/>
+      <c r="L296" s="40"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -10439,9 +10448,9 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="39"/>
+      <c r="J297" s="40"/>
       <c r="K297" s="1"/>
-      <c r="L297" s="39"/>
+      <c r="L297" s="40"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -10461,9 +10470,9 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="39"/>
+      <c r="J298" s="40"/>
       <c r="K298" s="1"/>
-      <c r="L298" s="39"/>
+      <c r="L298" s="40"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -10483,9 +10492,9 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="39"/>
+      <c r="J299" s="40"/>
       <c r="K299" s="1"/>
-      <c r="L299" s="39"/>
+      <c r="L299" s="40"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -10505,9 +10514,9 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="39"/>
+      <c r="J300" s="40"/>
       <c r="K300" s="1"/>
-      <c r="L300" s="39"/>
+      <c r="L300" s="40"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -10527,9 +10536,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="39"/>
+      <c r="J301" s="40"/>
       <c r="K301" s="1"/>
-      <c r="L301" s="39"/>
+      <c r="L301" s="40"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -10549,9 +10558,9 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="39"/>
+      <c r="J302" s="40"/>
       <c r="K302" s="1"/>
-      <c r="L302" s="39"/>
+      <c r="L302" s="40"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -10571,9 +10580,9 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="39"/>
+      <c r="J303" s="40"/>
       <c r="K303" s="1"/>
-      <c r="L303" s="39"/>
+      <c r="L303" s="40"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -10593,9 +10602,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="39"/>
+      <c r="J304" s="40"/>
       <c r="K304" s="1"/>
-      <c r="L304" s="39"/>
+      <c r="L304" s="40"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -10615,9 +10624,9 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="39"/>
+      <c r="J305" s="40"/>
       <c r="K305" s="1"/>
-      <c r="L305" s="39"/>
+      <c r="L305" s="40"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -10637,9 +10646,9 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="39"/>
+      <c r="J306" s="40"/>
       <c r="K306" s="1"/>
-      <c r="L306" s="39"/>
+      <c r="L306" s="40"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -10659,9 +10668,9 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="39"/>
+      <c r="J307" s="40"/>
       <c r="K307" s="1"/>
-      <c r="L307" s="39"/>
+      <c r="L307" s="40"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -10681,9 +10690,9 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="39"/>
+      <c r="J308" s="40"/>
       <c r="K308" s="1"/>
-      <c r="L308" s="39"/>
+      <c r="L308" s="40"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -10703,9 +10712,9 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="39"/>
+      <c r="J309" s="40"/>
       <c r="K309" s="1"/>
-      <c r="L309" s="39"/>
+      <c r="L309" s="40"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -10725,9 +10734,9 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="39"/>
+      <c r="J310" s="40"/>
       <c r="K310" s="1"/>
-      <c r="L310" s="39"/>
+      <c r="L310" s="40"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -10747,9 +10756,9 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="39"/>
+      <c r="J311" s="40"/>
       <c r="K311" s="1"/>
-      <c r="L311" s="39"/>
+      <c r="L311" s="40"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -10769,9 +10778,9 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="39"/>
+      <c r="J312" s="40"/>
       <c r="K312" s="1"/>
-      <c r="L312" s="39"/>
+      <c r="L312" s="40"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -10791,9 +10800,9 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="39"/>
+      <c r="J313" s="40"/>
       <c r="K313" s="1"/>
-      <c r="L313" s="39"/>
+      <c r="L313" s="40"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -10813,9 +10822,9 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="39"/>
+      <c r="J314" s="40"/>
       <c r="K314" s="1"/>
-      <c r="L314" s="39"/>
+      <c r="L314" s="40"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -10835,9 +10844,9 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="39"/>
+      <c r="J315" s="40"/>
       <c r="K315" s="1"/>
-      <c r="L315" s="39"/>
+      <c r="L315" s="40"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -10857,9 +10866,9 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="39"/>
+      <c r="J316" s="40"/>
       <c r="K316" s="1"/>
-      <c r="L316" s="39"/>
+      <c r="L316" s="40"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -10879,9 +10888,9 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="39"/>
+      <c r="J317" s="40"/>
       <c r="K317" s="1"/>
-      <c r="L317" s="39"/>
+      <c r="L317" s="40"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -10901,9 +10910,9 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="39"/>
+      <c r="J318" s="40"/>
       <c r="K318" s="1"/>
-      <c r="L318" s="39"/>
+      <c r="L318" s="40"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -10923,9 +10932,9 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="39"/>
+      <c r="J319" s="40"/>
       <c r="K319" s="1"/>
-      <c r="L319" s="39"/>
+      <c r="L319" s="40"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -10945,9 +10954,9 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="39"/>
+      <c r="J320" s="40"/>
       <c r="K320" s="1"/>
-      <c r="L320" s="39"/>
+      <c r="L320" s="40"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -10967,9 +10976,9 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="39"/>
+      <c r="J321" s="40"/>
       <c r="K321" s="1"/>
-      <c r="L321" s="39"/>
+      <c r="L321" s="40"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -10989,9 +10998,9 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="39"/>
+      <c r="J322" s="40"/>
       <c r="K322" s="1"/>
-      <c r="L322" s="39"/>
+      <c r="L322" s="40"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -11011,9 +11020,9 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="39"/>
+      <c r="J323" s="40"/>
       <c r="K323" s="1"/>
-      <c r="L323" s="39"/>
+      <c r="L323" s="40"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -11033,9 +11042,9 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="39"/>
+      <c r="J324" s="40"/>
       <c r="K324" s="1"/>
-      <c r="L324" s="39"/>
+      <c r="L324" s="40"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -11055,9 +11064,9 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="39"/>
+      <c r="J325" s="40"/>
       <c r="K325" s="1"/>
-      <c r="L325" s="39"/>
+      <c r="L325" s="40"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -11077,9 +11086,9 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="39"/>
+      <c r="J326" s="40"/>
       <c r="K326" s="1"/>
-      <c r="L326" s="39"/>
+      <c r="L326" s="40"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -11099,9 +11108,9 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="39"/>
+      <c r="J327" s="40"/>
       <c r="K327" s="1"/>
-      <c r="L327" s="39"/>
+      <c r="L327" s="40"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -11121,9 +11130,9 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="39"/>
+      <c r="J328" s="40"/>
       <c r="K328" s="1"/>
-      <c r="L328" s="39"/>
+      <c r="L328" s="40"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -11143,9 +11152,9 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="39"/>
+      <c r="J329" s="40"/>
       <c r="K329" s="1"/>
-      <c r="L329" s="39"/>
+      <c r="L329" s="40"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -11165,9 +11174,9 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="39"/>
+      <c r="J330" s="40"/>
       <c r="K330" s="1"/>
-      <c r="L330" s="39"/>
+      <c r="L330" s="40"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -11187,9 +11196,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="39"/>
+      <c r="J331" s="40"/>
       <c r="K331" s="1"/>
-      <c r="L331" s="39"/>
+      <c r="L331" s="40"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -11209,9 +11218,9 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="39"/>
+      <c r="J332" s="40"/>
       <c r="K332" s="1"/>
-      <c r="L332" s="39"/>
+      <c r="L332" s="40"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -11231,9 +11240,9 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="39"/>
+      <c r="J333" s="40"/>
       <c r="K333" s="1"/>
-      <c r="L333" s="39"/>
+      <c r="L333" s="40"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -11253,9 +11262,9 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="39"/>
+      <c r="J334" s="40"/>
       <c r="K334" s="1"/>
-      <c r="L334" s="39"/>
+      <c r="L334" s="40"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -11275,9 +11284,9 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="39"/>
+      <c r="J335" s="40"/>
       <c r="K335" s="1"/>
-      <c r="L335" s="39"/>
+      <c r="L335" s="40"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -11297,9 +11306,9 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="39"/>
+      <c r="J336" s="40"/>
       <c r="K336" s="1"/>
-      <c r="L336" s="39"/>
+      <c r="L336" s="40"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -11319,9 +11328,9 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="39"/>
+      <c r="J337" s="40"/>
       <c r="K337" s="1"/>
-      <c r="L337" s="39"/>
+      <c r="L337" s="40"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -11341,9 +11350,9 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="39"/>
+      <c r="J338" s="40"/>
       <c r="K338" s="1"/>
-      <c r="L338" s="39"/>
+      <c r="L338" s="40"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -11363,9 +11372,9 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="39"/>
+      <c r="J339" s="40"/>
       <c r="K339" s="1"/>
-      <c r="L339" s="39"/>
+      <c r="L339" s="40"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -11385,9 +11394,9 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="39"/>
+      <c r="J340" s="40"/>
       <c r="K340" s="1"/>
-      <c r="L340" s="39"/>
+      <c r="L340" s="40"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -11407,9 +11416,9 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="39"/>
+      <c r="J341" s="40"/>
       <c r="K341" s="1"/>
-      <c r="L341" s="39"/>
+      <c r="L341" s="40"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -11429,9 +11438,9 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="39"/>
+      <c r="J342" s="40"/>
       <c r="K342" s="1"/>
-      <c r="L342" s="39"/>
+      <c r="L342" s="40"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -11451,9 +11460,9 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="39"/>
+      <c r="J343" s="40"/>
       <c r="K343" s="1"/>
-      <c r="L343" s="39"/>
+      <c r="L343" s="40"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -11473,9 +11482,9 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="39"/>
+      <c r="J344" s="40"/>
       <c r="K344" s="1"/>
-      <c r="L344" s="39"/>
+      <c r="L344" s="40"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -11495,9 +11504,9 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="39"/>
+      <c r="J345" s="40"/>
       <c r="K345" s="1"/>
-      <c r="L345" s="39"/>
+      <c r="L345" s="40"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -11517,9 +11526,9 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="39"/>
+      <c r="J346" s="40"/>
       <c r="K346" s="1"/>
-      <c r="L346" s="39"/>
+      <c r="L346" s="40"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -11539,9 +11548,9 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="39"/>
+      <c r="J347" s="40"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="39"/>
+      <c r="L347" s="40"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -11561,9 +11570,9 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="39"/>
+      <c r="J348" s="40"/>
       <c r="K348" s="1"/>
-      <c r="L348" s="39"/>
+      <c r="L348" s="40"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -11583,9 +11592,9 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="39"/>
+      <c r="J349" s="40"/>
       <c r="K349" s="1"/>
-      <c r="L349" s="39"/>
+      <c r="L349" s="40"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -11605,9 +11614,9 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="39"/>
+      <c r="J350" s="40"/>
       <c r="K350" s="1"/>
-      <c r="L350" s="39"/>
+      <c r="L350" s="40"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -11627,9 +11636,9 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="39"/>
+      <c r="J351" s="40"/>
       <c r="K351" s="1"/>
-      <c r="L351" s="39"/>
+      <c r="L351" s="40"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -11649,9 +11658,9 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="39"/>
+      <c r="J352" s="40"/>
       <c r="K352" s="1"/>
-      <c r="L352" s="39"/>
+      <c r="L352" s="40"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -11671,9 +11680,9 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="39"/>
+      <c r="J353" s="40"/>
       <c r="K353" s="1"/>
-      <c r="L353" s="39"/>
+      <c r="L353" s="40"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -11693,9 +11702,9 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="39"/>
+      <c r="J354" s="40"/>
       <c r="K354" s="1"/>
-      <c r="L354" s="39"/>
+      <c r="L354" s="40"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -11715,9 +11724,9 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="39"/>
+      <c r="J355" s="40"/>
       <c r="K355" s="1"/>
-      <c r="L355" s="39"/>
+      <c r="L355" s="40"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -11737,9 +11746,9 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="39"/>
+      <c r="J356" s="40"/>
       <c r="K356" s="1"/>
-      <c r="L356" s="39"/>
+      <c r="L356" s="40"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -11759,9 +11768,9 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="39"/>
+      <c r="J357" s="40"/>
       <c r="K357" s="1"/>
-      <c r="L357" s="39"/>
+      <c r="L357" s="40"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -11781,9 +11790,9 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="39"/>
+      <c r="J358" s="40"/>
       <c r="K358" s="1"/>
-      <c r="L358" s="39"/>
+      <c r="L358" s="40"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -11803,9 +11812,9 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="39"/>
+      <c r="J359" s="40"/>
       <c r="K359" s="1"/>
-      <c r="L359" s="39"/>
+      <c r="L359" s="40"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -11825,9 +11834,9 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="39"/>
+      <c r="J360" s="40"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="39"/>
+      <c r="L360" s="40"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -11847,9 +11856,9 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="39"/>
+      <c r="J361" s="40"/>
       <c r="K361" s="1"/>
-      <c r="L361" s="39"/>
+      <c r="L361" s="40"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -11869,9 +11878,9 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="39"/>
+      <c r="J362" s="40"/>
       <c r="K362" s="1"/>
-      <c r="L362" s="39"/>
+      <c r="L362" s="40"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -11891,9 +11900,9 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="39"/>
+      <c r="J363" s="40"/>
       <c r="K363" s="1"/>
-      <c r="L363" s="39"/>
+      <c r="L363" s="40"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -11913,9 +11922,9 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="39"/>
+      <c r="J364" s="40"/>
       <c r="K364" s="1"/>
-      <c r="L364" s="39"/>
+      <c r="L364" s="40"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -11935,9 +11944,9 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="39"/>
+      <c r="J365" s="40"/>
       <c r="K365" s="1"/>
-      <c r="L365" s="39"/>
+      <c r="L365" s="40"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -11957,9 +11966,9 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="39"/>
+      <c r="J366" s="40"/>
       <c r="K366" s="1"/>
-      <c r="L366" s="39"/>
+      <c r="L366" s="40"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -11979,9 +11988,9 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="39"/>
+      <c r="J367" s="40"/>
       <c r="K367" s="1"/>
-      <c r="L367" s="39"/>
+      <c r="L367" s="40"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -12001,9 +12010,9 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="39"/>
+      <c r="J368" s="40"/>
       <c r="K368" s="1"/>
-      <c r="L368" s="39"/>
+      <c r="L368" s="40"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -12023,9 +12032,9 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="39"/>
+      <c r="J369" s="40"/>
       <c r="K369" s="1"/>
-      <c r="L369" s="39"/>
+      <c r="L369" s="40"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -12045,9 +12054,9 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="39"/>
+      <c r="J370" s="40"/>
       <c r="K370" s="1"/>
-      <c r="L370" s="39"/>
+      <c r="L370" s="40"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -12067,9 +12076,9 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="39"/>
+      <c r="J371" s="40"/>
       <c r="K371" s="1"/>
-      <c r="L371" s="39"/>
+      <c r="L371" s="40"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -12089,9 +12098,9 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="39"/>
+      <c r="J372" s="40"/>
       <c r="K372" s="1"/>
-      <c r="L372" s="39"/>
+      <c r="L372" s="40"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -12111,9 +12120,9 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="39"/>
+      <c r="J373" s="40"/>
       <c r="K373" s="1"/>
-      <c r="L373" s="39"/>
+      <c r="L373" s="40"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -12133,9 +12142,9 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="39"/>
+      <c r="J374" s="40"/>
       <c r="K374" s="1"/>
-      <c r="L374" s="39"/>
+      <c r="L374" s="40"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -12155,9 +12164,9 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="39"/>
+      <c r="J375" s="40"/>
       <c r="K375" s="1"/>
-      <c r="L375" s="39"/>
+      <c r="L375" s="40"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -12177,9 +12186,9 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="39"/>
+      <c r="J376" s="40"/>
       <c r="K376" s="1"/>
-      <c r="L376" s="39"/>
+      <c r="L376" s="40"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -12199,9 +12208,9 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="39"/>
+      <c r="J377" s="40"/>
       <c r="K377" s="1"/>
-      <c r="L377" s="39"/>
+      <c r="L377" s="40"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -12221,9 +12230,9 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="39"/>
+      <c r="J378" s="40"/>
       <c r="K378" s="1"/>
-      <c r="L378" s="39"/>
+      <c r="L378" s="40"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -12243,9 +12252,9 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="39"/>
+      <c r="J379" s="40"/>
       <c r="K379" s="1"/>
-      <c r="L379" s="39"/>
+      <c r="L379" s="40"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -12265,9 +12274,9 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="39"/>
+      <c r="J380" s="40"/>
       <c r="K380" s="1"/>
-      <c r="L380" s="39"/>
+      <c r="L380" s="40"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -12287,9 +12296,9 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="39"/>
+      <c r="J381" s="40"/>
       <c r="K381" s="1"/>
-      <c r="L381" s="39"/>
+      <c r="L381" s="40"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -12309,9 +12318,9 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="39"/>
+      <c r="J382" s="40"/>
       <c r="K382" s="1"/>
-      <c r="L382" s="39"/>
+      <c r="L382" s="40"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -12331,9 +12340,9 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="39"/>
+      <c r="J383" s="40"/>
       <c r="K383" s="1"/>
-      <c r="L383" s="39"/>
+      <c r="L383" s="40"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -12353,9 +12362,9 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="39"/>
+      <c r="J384" s="40"/>
       <c r="K384" s="1"/>
-      <c r="L384" s="39"/>
+      <c r="L384" s="40"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -12375,9 +12384,9 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="39"/>
+      <c r="J385" s="40"/>
       <c r="K385" s="1"/>
-      <c r="L385" s="39"/>
+      <c r="L385" s="40"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -12397,9 +12406,9 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="39"/>
+      <c r="J386" s="40"/>
       <c r="K386" s="1"/>
-      <c r="L386" s="39"/>
+      <c r="L386" s="40"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -12419,9 +12428,9 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="39"/>
+      <c r="J387" s="40"/>
       <c r="K387" s="1"/>
-      <c r="L387" s="39"/>
+      <c r="L387" s="40"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -12441,9 +12450,9 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="39"/>
+      <c r="J388" s="40"/>
       <c r="K388" s="1"/>
-      <c r="L388" s="39"/>
+      <c r="L388" s="40"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -12463,9 +12472,9 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="39"/>
+      <c r="J389" s="40"/>
       <c r="K389" s="1"/>
-      <c r="L389" s="39"/>
+      <c r="L389" s="40"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -12485,9 +12494,9 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="39"/>
+      <c r="J390" s="40"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="39"/>
+      <c r="L390" s="40"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -12507,9 +12516,9 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="39"/>
+      <c r="J391" s="40"/>
       <c r="K391" s="1"/>
-      <c r="L391" s="39"/>
+      <c r="L391" s="40"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -12529,9 +12538,9 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="39"/>
+      <c r="J392" s="40"/>
       <c r="K392" s="1"/>
-      <c r="L392" s="39"/>
+      <c r="L392" s="40"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -12551,9 +12560,9 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="39"/>
+      <c r="J393" s="40"/>
       <c r="K393" s="1"/>
-      <c r="L393" s="39"/>
+      <c r="L393" s="40"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -12573,9 +12582,9 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="39"/>
+      <c r="J394" s="40"/>
       <c r="K394" s="1"/>
-      <c r="L394" s="39"/>
+      <c r="L394" s="40"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -12595,9 +12604,9 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="39"/>
+      <c r="J395" s="40"/>
       <c r="K395" s="1"/>
-      <c r="L395" s="39"/>
+      <c r="L395" s="40"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -12617,9 +12626,9 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="39"/>
+      <c r="J396" s="40"/>
       <c r="K396" s="1"/>
-      <c r="L396" s="39"/>
+      <c r="L396" s="40"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -12639,9 +12648,9 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="39"/>
+      <c r="J397" s="40"/>
       <c r="K397" s="1"/>
-      <c r="L397" s="39"/>
+      <c r="L397" s="40"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -12661,9 +12670,9 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="39"/>
+      <c r="J398" s="40"/>
       <c r="K398" s="1"/>
-      <c r="L398" s="39"/>
+      <c r="L398" s="40"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -12683,9 +12692,9 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="39"/>
+      <c r="J399" s="40"/>
       <c r="K399" s="1"/>
-      <c r="L399" s="39"/>
+      <c r="L399" s="40"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -12705,9 +12714,9 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="39"/>
+      <c r="J400" s="40"/>
       <c r="K400" s="1"/>
-      <c r="L400" s="39"/>
+      <c r="L400" s="40"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -12727,9 +12736,9 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="39"/>
+      <c r="J401" s="40"/>
       <c r="K401" s="1"/>
-      <c r="L401" s="39"/>
+      <c r="L401" s="40"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -12749,9 +12758,9 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="39"/>
+      <c r="J402" s="40"/>
       <c r="K402" s="1"/>
-      <c r="L402" s="39"/>
+      <c r="L402" s="40"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -12771,9 +12780,9 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="39"/>
+      <c r="J403" s="40"/>
       <c r="K403" s="1"/>
-      <c r="L403" s="39"/>
+      <c r="L403" s="40"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -12793,9 +12802,9 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="39"/>
+      <c r="J404" s="40"/>
       <c r="K404" s="1"/>
-      <c r="L404" s="39"/>
+      <c r="L404" s="40"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -12815,9 +12824,9 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="39"/>
+      <c r="J405" s="40"/>
       <c r="K405" s="1"/>
-      <c r="L405" s="39"/>
+      <c r="L405" s="40"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -12837,9 +12846,9 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="39"/>
+      <c r="J406" s="40"/>
       <c r="K406" s="1"/>
-      <c r="L406" s="39"/>
+      <c r="L406" s="40"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -12859,9 +12868,9 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="39"/>
+      <c r="J407" s="40"/>
       <c r="K407" s="1"/>
-      <c r="L407" s="39"/>
+      <c r="L407" s="40"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -12881,9 +12890,9 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="39"/>
+      <c r="J408" s="40"/>
       <c r="K408" s="1"/>
-      <c r="L408" s="39"/>
+      <c r="L408" s="40"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -12903,9 +12912,9 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="39"/>
+      <c r="J409" s="40"/>
       <c r="K409" s="1"/>
-      <c r="L409" s="39"/>
+      <c r="L409" s="40"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -12925,9 +12934,9 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="39"/>
+      <c r="J410" s="40"/>
       <c r="K410" s="1"/>
-      <c r="L410" s="39"/>
+      <c r="L410" s="40"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
@@ -12947,9 +12956,9 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="39"/>
+      <c r="J411" s="40"/>
       <c r="K411" s="1"/>
-      <c r="L411" s="39"/>
+      <c r="L411" s="40"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
@@ -12969,9 +12978,9 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="39"/>
+      <c r="J412" s="40"/>
       <c r="K412" s="1"/>
-      <c r="L412" s="39"/>
+      <c r="L412" s="40"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
@@ -12991,9 +13000,9 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="39"/>
+      <c r="J413" s="40"/>
       <c r="K413" s="1"/>
-      <c r="L413" s="39"/>
+      <c r="L413" s="40"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
@@ -13013,9 +13022,9 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="39"/>
+      <c r="J414" s="40"/>
       <c r="K414" s="1"/>
-      <c r="L414" s="39"/>
+      <c r="L414" s="40"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
@@ -13035,9 +13044,9 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="39"/>
+      <c r="J415" s="40"/>
       <c r="K415" s="1"/>
-      <c r="L415" s="39"/>
+      <c r="L415" s="40"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
@@ -13057,9 +13066,9 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="39"/>
+      <c r="J416" s="40"/>
       <c r="K416" s="1"/>
-      <c r="L416" s="39"/>
+      <c r="L416" s="40"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
@@ -13079,9 +13088,9 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="39"/>
+      <c r="J417" s="40"/>
       <c r="K417" s="1"/>
-      <c r="L417" s="39"/>
+      <c r="L417" s="40"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
@@ -13101,9 +13110,9 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="39"/>
+      <c r="J418" s="40"/>
       <c r="K418" s="1"/>
-      <c r="L418" s="39"/>
+      <c r="L418" s="40"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
@@ -13123,9 +13132,9 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="39"/>
+      <c r="J419" s="40"/>
       <c r="K419" s="1"/>
-      <c r="L419" s="39"/>
+      <c r="L419" s="40"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
@@ -13145,9 +13154,9 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="39"/>
+      <c r="J420" s="40"/>
       <c r="K420" s="1"/>
-      <c r="L420" s="39"/>
+      <c r="L420" s="40"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
@@ -13167,9 +13176,9 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="39"/>
+      <c r="J421" s="40"/>
       <c r="K421" s="1"/>
-      <c r="L421" s="39"/>
+      <c r="L421" s="40"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
@@ -13189,9 +13198,9 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="39"/>
+      <c r="J422" s="40"/>
       <c r="K422" s="1"/>
-      <c r="L422" s="39"/>
+      <c r="L422" s="40"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
@@ -13211,9 +13220,9 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="39"/>
+      <c r="J423" s="40"/>
       <c r="K423" s="1"/>
-      <c r="L423" s="39"/>
+      <c r="L423" s="40"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
@@ -13233,9 +13242,9 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="39"/>
+      <c r="J424" s="40"/>
       <c r="K424" s="1"/>
-      <c r="L424" s="39"/>
+      <c r="L424" s="40"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
@@ -13255,9 +13264,9 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="39"/>
+      <c r="J425" s="40"/>
       <c r="K425" s="1"/>
-      <c r="L425" s="39"/>
+      <c r="L425" s="40"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
@@ -13277,9 +13286,9 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="39"/>
+      <c r="J426" s="40"/>
       <c r="K426" s="1"/>
-      <c r="L426" s="39"/>
+      <c r="L426" s="40"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
@@ -13299,9 +13308,9 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="39"/>
+      <c r="J427" s="40"/>
       <c r="K427" s="1"/>
-      <c r="L427" s="39"/>
+      <c r="L427" s="40"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
@@ -13321,9 +13330,9 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="39"/>
+      <c r="J428" s="40"/>
       <c r="K428" s="1"/>
-      <c r="L428" s="39"/>
+      <c r="L428" s="40"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
@@ -13343,9 +13352,9 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="39"/>
+      <c r="J429" s="40"/>
       <c r="K429" s="1"/>
-      <c r="L429" s="39"/>
+      <c r="L429" s="40"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
@@ -13365,9 +13374,9 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="39"/>
+      <c r="J430" s="40"/>
       <c r="K430" s="1"/>
-      <c r="L430" s="39"/>
+      <c r="L430" s="40"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
@@ -13387,9 +13396,9 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="39"/>
+      <c r="J431" s="40"/>
       <c r="K431" s="1"/>
-      <c r="L431" s="39"/>
+      <c r="L431" s="40"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
@@ -13409,9 +13418,9 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="39"/>
+      <c r="J432" s="40"/>
       <c r="K432" s="1"/>
-      <c r="L432" s="39"/>
+      <c r="L432" s="40"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
@@ -13431,9 +13440,9 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="39"/>
+      <c r="J433" s="40"/>
       <c r="K433" s="1"/>
-      <c r="L433" s="39"/>
+      <c r="L433" s="40"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
@@ -13453,9 +13462,9 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="39"/>
+      <c r="J434" s="40"/>
       <c r="K434" s="1"/>
-      <c r="L434" s="39"/>
+      <c r="L434" s="40"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
@@ -13475,9 +13484,9 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="39"/>
+      <c r="J435" s="40"/>
       <c r="K435" s="1"/>
-      <c r="L435" s="39"/>
+      <c r="L435" s="40"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
@@ -13497,9 +13506,9 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="39"/>
+      <c r="J436" s="40"/>
       <c r="K436" s="1"/>
-      <c r="L436" s="39"/>
+      <c r="L436" s="40"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
@@ -13519,9 +13528,9 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="39"/>
+      <c r="J437" s="40"/>
       <c r="K437" s="1"/>
-      <c r="L437" s="39"/>
+      <c r="L437" s="40"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
@@ -13541,9 +13550,9 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="39"/>
+      <c r="J438" s="40"/>
       <c r="K438" s="1"/>
-      <c r="L438" s="39"/>
+      <c r="L438" s="40"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
@@ -13563,9 +13572,9 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="39"/>
+      <c r="J439" s="40"/>
       <c r="K439" s="1"/>
-      <c r="L439" s="39"/>
+      <c r="L439" s="40"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
@@ -13585,9 +13594,9 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="39"/>
+      <c r="J440" s="40"/>
       <c r="K440" s="1"/>
-      <c r="L440" s="39"/>
+      <c r="L440" s="40"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
@@ -13607,9 +13616,9 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="39"/>
+      <c r="J441" s="40"/>
       <c r="K441" s="1"/>
-      <c r="L441" s="39"/>
+      <c r="L441" s="40"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
@@ -13629,9 +13638,9 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="39"/>
+      <c r="J442" s="40"/>
       <c r="K442" s="1"/>
-      <c r="L442" s="39"/>
+      <c r="L442" s="40"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
@@ -13651,9 +13660,9 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="39"/>
+      <c r="J443" s="40"/>
       <c r="K443" s="1"/>
-      <c r="L443" s="39"/>
+      <c r="L443" s="40"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
@@ -13673,9 +13682,9 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="39"/>
+      <c r="J444" s="40"/>
       <c r="K444" s="1"/>
-      <c r="L444" s="39"/>
+      <c r="L444" s="40"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
@@ -13695,9 +13704,9 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="39"/>
+      <c r="J445" s="40"/>
       <c r="K445" s="1"/>
-      <c r="L445" s="39"/>
+      <c r="L445" s="40"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
@@ -13717,9 +13726,9 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="39"/>
+      <c r="J446" s="40"/>
       <c r="K446" s="1"/>
-      <c r="L446" s="39"/>
+      <c r="L446" s="40"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
@@ -13739,9 +13748,9 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="39"/>
+      <c r="J447" s="40"/>
       <c r="K447" s="1"/>
-      <c r="L447" s="39"/>
+      <c r="L447" s="40"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
@@ -13761,9 +13770,9 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="39"/>
+      <c r="J448" s="40"/>
       <c r="K448" s="1"/>
-      <c r="L448" s="39"/>
+      <c r="L448" s="40"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
@@ -13783,9 +13792,9 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="39"/>
+      <c r="J449" s="40"/>
       <c r="K449" s="1"/>
-      <c r="L449" s="39"/>
+      <c r="L449" s="40"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
@@ -13805,9 +13814,9 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="39"/>
+      <c r="J450" s="40"/>
       <c r="K450" s="1"/>
-      <c r="L450" s="39"/>
+      <c r="L450" s="40"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
@@ -13827,9 +13836,9 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="39"/>
+      <c r="J451" s="40"/>
       <c r="K451" s="1"/>
-      <c r="L451" s="39"/>
+      <c r="L451" s="40"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
@@ -13849,9 +13858,9 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="39"/>
+      <c r="J452" s="40"/>
       <c r="K452" s="1"/>
-      <c r="L452" s="39"/>
+      <c r="L452" s="40"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
@@ -13871,9 +13880,9 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="39"/>
+      <c r="J453" s="40"/>
       <c r="K453" s="1"/>
-      <c r="L453" s="39"/>
+      <c r="L453" s="40"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
@@ -13893,9 +13902,9 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="39"/>
+      <c r="J454" s="40"/>
       <c r="K454" s="1"/>
-      <c r="L454" s="39"/>
+      <c r="L454" s="40"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
@@ -13915,9 +13924,9 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="39"/>
+      <c r="J455" s="40"/>
       <c r="K455" s="1"/>
-      <c r="L455" s="39"/>
+      <c r="L455" s="40"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
@@ -13937,9 +13946,9 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="39"/>
+      <c r="J456" s="40"/>
       <c r="K456" s="1"/>
-      <c r="L456" s="39"/>
+      <c r="L456" s="40"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
@@ -13959,9 +13968,9 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="39"/>
+      <c r="J457" s="40"/>
       <c r="K457" s="1"/>
-      <c r="L457" s="39"/>
+      <c r="L457" s="40"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
@@ -13981,9 +13990,9 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="39"/>
+      <c r="J458" s="40"/>
       <c r="K458" s="1"/>
-      <c r="L458" s="39"/>
+      <c r="L458" s="40"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
@@ -14003,9 +14012,9 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="39"/>
+      <c r="J459" s="40"/>
       <c r="K459" s="1"/>
-      <c r="L459" s="39"/>
+      <c r="L459" s="40"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
@@ -14025,9 +14034,9 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="39"/>
+      <c r="J460" s="40"/>
       <c r="K460" s="1"/>
-      <c r="L460" s="39"/>
+      <c r="L460" s="40"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
@@ -14047,9 +14056,9 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="39"/>
+      <c r="J461" s="40"/>
       <c r="K461" s="1"/>
-      <c r="L461" s="39"/>
+      <c r="L461" s="40"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
@@ -14069,9 +14078,9 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="39"/>
+      <c r="J462" s="40"/>
       <c r="K462" s="1"/>
-      <c r="L462" s="39"/>
+      <c r="L462" s="40"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
@@ -14091,9 +14100,9 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="39"/>
+      <c r="J463" s="40"/>
       <c r="K463" s="1"/>
-      <c r="L463" s="39"/>
+      <c r="L463" s="40"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
@@ -14113,9 +14122,9 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="39"/>
+      <c r="J464" s="40"/>
       <c r="K464" s="1"/>
-      <c r="L464" s="39"/>
+      <c r="L464" s="40"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
@@ -14135,9 +14144,9 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="39"/>
+      <c r="J465" s="40"/>
       <c r="K465" s="1"/>
-      <c r="L465" s="39"/>
+      <c r="L465" s="40"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
@@ -14157,9 +14166,9 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="39"/>
+      <c r="J466" s="40"/>
       <c r="K466" s="1"/>
-      <c r="L466" s="39"/>
+      <c r="L466" s="40"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
@@ -14179,9 +14188,9 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="39"/>
+      <c r="J467" s="40"/>
       <c r="K467" s="1"/>
-      <c r="L467" s="39"/>
+      <c r="L467" s="40"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
@@ -14201,9 +14210,9 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="39"/>
+      <c r="J468" s="40"/>
       <c r="K468" s="1"/>
-      <c r="L468" s="39"/>
+      <c r="L468" s="40"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
@@ -14223,9 +14232,9 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="39"/>
+      <c r="J469" s="40"/>
       <c r="K469" s="1"/>
-      <c r="L469" s="39"/>
+      <c r="L469" s="40"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
@@ -14245,9 +14254,9 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="39"/>
+      <c r="J470" s="40"/>
       <c r="K470" s="1"/>
-      <c r="L470" s="39"/>
+      <c r="L470" s="40"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
@@ -14267,9 +14276,9 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="39"/>
+      <c r="J471" s="40"/>
       <c r="K471" s="1"/>
-      <c r="L471" s="39"/>
+      <c r="L471" s="40"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
@@ -14289,9 +14298,9 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="39"/>
+      <c r="J472" s="40"/>
       <c r="K472" s="1"/>
-      <c r="L472" s="39"/>
+      <c r="L472" s="40"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
@@ -14311,9 +14320,9 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="39"/>
+      <c r="J473" s="40"/>
       <c r="K473" s="1"/>
-      <c r="L473" s="39"/>
+      <c r="L473" s="40"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
@@ -14333,9 +14342,9 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="39"/>
+      <c r="J474" s="40"/>
       <c r="K474" s="1"/>
-      <c r="L474" s="39"/>
+      <c r="L474" s="40"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
@@ -14355,9 +14364,9 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="39"/>
+      <c r="J475" s="40"/>
       <c r="K475" s="1"/>
-      <c r="L475" s="39"/>
+      <c r="L475" s="40"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
@@ -14377,9 +14386,9 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="39"/>
+      <c r="J476" s="40"/>
       <c r="K476" s="1"/>
-      <c r="L476" s="39"/>
+      <c r="L476" s="40"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
@@ -14399,9 +14408,9 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="39"/>
+      <c r="J477" s="40"/>
       <c r="K477" s="1"/>
-      <c r="L477" s="39"/>
+      <c r="L477" s="40"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
@@ -14421,9 +14430,9 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="39"/>
+      <c r="J478" s="40"/>
       <c r="K478" s="1"/>
-      <c r="L478" s="39"/>
+      <c r="L478" s="40"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
@@ -14443,9 +14452,9 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="39"/>
+      <c r="J479" s="40"/>
       <c r="K479" s="1"/>
-      <c r="L479" s="39"/>
+      <c r="L479" s="40"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
@@ -14465,9 +14474,9 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
-      <c r="J480" s="39"/>
+      <c r="J480" s="40"/>
       <c r="K480" s="1"/>
-      <c r="L480" s="39"/>
+      <c r="L480" s="40"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
@@ -14487,9 +14496,9 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
-      <c r="J481" s="39"/>
+      <c r="J481" s="40"/>
       <c r="K481" s="1"/>
-      <c r="L481" s="39"/>
+      <c r="L481" s="40"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
@@ -14509,9 +14518,9 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
-      <c r="J482" s="39"/>
+      <c r="J482" s="40"/>
       <c r="K482" s="1"/>
-      <c r="L482" s="39"/>
+      <c r="L482" s="40"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
@@ -14531,9 +14540,9 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
-      <c r="J483" s="39"/>
+      <c r="J483" s="40"/>
       <c r="K483" s="1"/>
-      <c r="L483" s="39"/>
+      <c r="L483" s="40"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
@@ -14553,9 +14562,9 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
       <c r="I484" s="1"/>
-      <c r="J484" s="39"/>
+      <c r="J484" s="40"/>
       <c r="K484" s="1"/>
-      <c r="L484" s="39"/>
+      <c r="L484" s="40"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
@@ -14575,9 +14584,9 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="I485" s="1"/>
-      <c r="J485" s="39"/>
+      <c r="J485" s="40"/>
       <c r="K485" s="1"/>
-      <c r="L485" s="39"/>
+      <c r="L485" s="40"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
@@ -14597,9 +14606,9 @@
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
       <c r="I486" s="1"/>
-      <c r="J486" s="39"/>
+      <c r="J486" s="40"/>
       <c r="K486" s="1"/>
-      <c r="L486" s="39"/>
+      <c r="L486" s="40"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
@@ -14619,9 +14628,9 @@
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
       <c r="I487" s="1"/>
-      <c r="J487" s="39"/>
+      <c r="J487" s="40"/>
       <c r="K487" s="1"/>
-      <c r="L487" s="39"/>
+      <c r="L487" s="40"/>
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
@@ -14641,9 +14650,9 @@
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
       <c r="I488" s="1"/>
-      <c r="J488" s="39"/>
+      <c r="J488" s="40"/>
       <c r="K488" s="1"/>
-      <c r="L488" s="39"/>
+      <c r="L488" s="40"/>
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
@@ -14663,9 +14672,9 @@
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
       <c r="I489" s="1"/>
-      <c r="J489" s="39"/>
+      <c r="J489" s="40"/>
       <c r="K489" s="1"/>
-      <c r="L489" s="39"/>
+      <c r="L489" s="40"/>
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
@@ -14685,9 +14694,9 @@
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
       <c r="I490" s="1"/>
-      <c r="J490" s="39"/>
+      <c r="J490" s="40"/>
       <c r="K490" s="1"/>
-      <c r="L490" s="39"/>
+      <c r="L490" s="40"/>
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/双星新材.xlsx
@@ -2044,7 +2044,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="L6 M7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
